--- a/WZ_Jahre_test.xlsx
+++ b/WZ_Jahre_test.xlsx
@@ -99,7 +99,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -468,24 +468,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="174761472"/>
-        <c:axId val="174763008"/>
+        <c:axId val="57910784"/>
+        <c:axId val="57912320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174761472"/>
+        <c:axId val="57910784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174763008"/>
+        <c:crossAx val="57912320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174763008"/>
+        <c:axId val="57912320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,7 +493,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174761472"/>
+        <c:crossAx val="57910784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -506,7 +506,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -835,7 +835,7 @@
   <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -857,7 +857,7 @@
         <v>1722</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
